--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>RO.ACT.001</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.SUP</t>
   </si>
   <si>
     <t>RO.ACT.001.CRE</t>
@@ -386,7 +389,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -414,7 +417,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -422,10 +425,15 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>RO.ACT.001</t>
-  </si>
-  <si>
-    <t>RO.ACT.001.SUP</t>
   </si>
   <si>
     <t>RO.ACT.001.CRE</t>
@@ -389,7 +386,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -417,23 +414,15 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -34,7 +34,10 @@
     <t>RO.ACT.001</t>
   </si>
   <si>
-    <t>RO.ACT.001.CRE</t>
+    <t>RO.ACT.003HAB.SRA</t>
+  </si>
+  <si>
+    <t>RO.ACT.003HAB.SRL</t>
   </si>
 </sst>
 </file>
@@ -386,7 +389,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -421,6 +424,9 @@
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="924" yWindow="-24" windowWidth="10224" windowHeight="6672"/>
+    <workbookView xWindow="-12" yWindow="9744" windowWidth="28848" windowHeight="3300"/>
   </bookViews>
   <sheets>
     <sheet name="LIST" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>RO.ACT.003HAB.SRL</t>
+  </si>
+  <si>
+    <t>RO.ACT.003HAB.SRM</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET.SRA</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET</t>
   </si>
 </sst>
 </file>
@@ -386,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -417,7 +426,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -425,7 +434,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -434,6 +443,31 @@
     <row r="6" spans="1:4">
       <c r="D6" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -46,7 +46,40 @@
     <t>RO.ACT.003MET.SRA</t>
   </si>
   <si>
-    <t>RO.ACT.003MET</t>
+    <t>RO.ACT.003HAB.SRS</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET.SRL</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET.SRM</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET.SRS</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.CRE</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.SUP</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.LEC</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.MAJ</t>
+  </si>
+  <si>
+    <t>RO.ACT.004EMP.SRL</t>
+  </si>
+  <si>
+    <t>RO.ACT.004EMP.SRA</t>
+  </si>
+  <si>
+    <t>RO.ACT.004EMP.SRS</t>
+  </si>
+  <si>
+    <t>RO.ACT.004EMP.SRM</t>
   </si>
 </sst>
 </file>
@@ -395,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -406,9 +439,14 @@
     <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,58 +454,113 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" t="s">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="E8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="D9" t="s">
+    <row r="9" spans="1:8">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" t="s">
+    <row r="10" spans="1:8">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="E14" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="D14" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>RO.ACT.004EMP.SRM</t>
+  </si>
+  <si>
+    <t>RO.ACT.004</t>
+  </si>
+  <si>
+    <t>RO.ACT.003</t>
   </si>
 </sst>
 </file>
@@ -431,7 +437,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -476,7 +482,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -495,6 +501,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -512,6 +521,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -528,22 +540,39 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="8" spans="1:8">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" t="s">
         <v>9</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -437,14 +437,14 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.21875" customWidth="1"/>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -501,9 +501,6 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -521,9 +518,6 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -540,9 +534,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>3</v>
+    <row r="7" spans="1:8">
+      <c r="D7" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="9744" windowWidth="28848" windowHeight="3300"/>
+    <workbookView xWindow="-12" yWindow="0" windowWidth="7380" windowHeight="3300"/>
   </bookViews>
   <sheets>
     <sheet name="LIST" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>RO.ACT.003</t>
+  </si>
+  <si>
+    <t>RO.ACT.005</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -482,7 +485,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -501,6 +504,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
@@ -518,6 +524,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -532,6 +541,11 @@
       </c>
       <c r="H5" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -577,6 +591,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>AD.SEC.002.FON.01</t>
-  </si>
-  <si>
-    <t>ZZ.001</t>
   </si>
   <si>
     <t>RO.ACT.001</t>
@@ -440,7 +437,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -471,81 +468,67 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -555,26 +538,26 @@
     </row>
     <row r="8" spans="1:8">
       <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
         <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -582,20 +565,20 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8">

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>RO.ACT.005</t>
+  </si>
+  <si>
+    <t>ZZ.001</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -462,7 +465,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -481,9 +484,6 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>RO.ACT.005</t>
-  </si>
-  <si>
-    <t>ZZ.001</t>
   </si>
 </sst>
 </file>
@@ -440,7 +437,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -448,11 +445,10 @@
     <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -465,7 +461,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -484,6 +480,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
@@ -498,6 +497,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -480,9 +480,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="E3" t="s">
         <v>14</v>
       </c>
@@ -497,9 +495,6 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -480,7 +480,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -497,6 +497,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>RO.ACT.005</t>
+  </si>
+  <si>
+    <t>RO.ACT</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -481,7 +484,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>RO.ACT.005</t>
-  </si>
-  <si>
-    <t>RO.ACT</t>
   </si>
 </sst>
 </file>
@@ -440,7 +437,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -484,7 +481,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -500,9 +497,6 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>RO.ACT.005</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.MAJ.01</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -481,7 +484,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -497,6 +500,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>RO.ACT.005</t>
-  </si>
-  <si>
-    <t>RO.ACT.001.MAJ.01</t>
   </si>
 </sst>
 </file>
@@ -440,7 +437,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -484,7 +481,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -500,9 +497,6 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>RO.ACT.005</t>
+  </si>
+  <si>
+    <t>RO.ACT</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A8:A9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -481,7 +484,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -497,6 +500,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -25,12 +25,6 @@
     <t>AD.SEC.001.FON.01</t>
   </si>
   <si>
-    <t>AD.SEC.002.FON.01</t>
-  </si>
-  <si>
-    <t>RO.ACT.001</t>
-  </si>
-  <si>
     <t>RO.ACT.003HAB.SRA</t>
   </si>
   <si>
@@ -79,13 +73,13 @@
     <t>RO.ACT.004EMP.SRM</t>
   </si>
   <si>
-    <t>RO.ACT.004</t>
-  </si>
-  <si>
-    <t>RO.ACT.003</t>
-  </si>
-  <si>
-    <t>RO.ACT.005</t>
+    <t>AD.SEC.014.FON.01</t>
+  </si>
+  <si>
+    <t>AD.SEC.001.FON.02</t>
+  </si>
+  <si>
+    <t>AD.SEC.001.FON.03</t>
   </si>
   <si>
     <t>RO.ACT</t>
@@ -95,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +103,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,8 +134,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -144,8 +145,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 18" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -437,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -464,131 +466,112 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
+    <row r="9" spans="1:8">
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="D7" s="2" t="s">
+    <row r="10" spans="1:8">
+      <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="D9" t="s">
+    <row r="11" spans="1:8">
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="D12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="E12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="E14" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -442,7 +442,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -466,7 +466,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -485,8 +485,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -505,9 +505,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
@@ -525,9 +523,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -542,11 +538,6 @@
       </c>
       <c r="H5" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>RO.ACT</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.REC</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A10"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -466,7 +469,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -485,8 +488,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>19</v>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -505,7 +508,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
@@ -523,7 +528,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -538,6 +545,14 @@
       </c>
       <c r="H5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -445,7 +445,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -488,8 +488,11 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -508,9 +511,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
@@ -528,9 +529,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -548,9 +547,6 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>RO.ACT.001.REC</t>
+  </si>
+  <si>
+    <t>AD.SEC.001.FON.99</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -469,7 +472,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -488,12 +491,6 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B16" sqref="B15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -491,6 +491,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
@@ -508,7 +511,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
@@ -544,34 +549,79 @@
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
       <c r="E6" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+    </row>
     <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
       <c r="D13" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B15:B16"/>
+      <selection activeCell="I21" sqref="H18:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -492,7 +492,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -448,7 +448,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="H18:I21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -491,8 +491,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -511,8 +511,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>19</v>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>21</v>
@@ -531,7 +531,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
@@ -549,7 +551,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="LIST" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -445,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -462,7 +463,7 @@
     <col min="7" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,140 +471,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:2">
       <c r="A9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="2"/>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:2">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
@@ -626,6 +539,127 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="6" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>AD.SEC.001.FON.99</t>
+  </si>
+  <si>
+    <t>ZZ.010</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -473,21 +476,14 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+      <c r="A3" s="2"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
@@ -550,7 +546,7 @@
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>AD.SEC.001.FON.99</t>
-  </si>
-  <si>
-    <t>ZZ.010</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -476,14 +473,28 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
@@ -546,7 +557,7 @@
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -449,7 +449,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -477,24 +477,13 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>AD.SEC.001.FON.99</t>
+  </si>
+  <si>
+    <t>RO.FOU</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -458,9 +461,8 @@
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -477,25 +479,29 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2"/>
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2"/>
@@ -543,10 +549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B13"/>
+      <selection activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -653,7 +659,12 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
     </row>

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>RO.FOU</t>
+  </si>
+  <si>
+    <t>RO.FOU.001.MAJ</t>
+  </si>
+  <si>
+    <t>RO.FOU.001.LEC</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -465,7 +471,7 @@
     <col min="6" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,52 +479,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:4">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:4">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4">
+      <c r="D9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">

--- a/TNR_JDD/TNRSequencer.xlsx
+++ b/TNR_JDD/TNRSequencer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>CAS_DE_TEST</t>
   </si>
@@ -93,12 +93,6 @@
   </si>
   <si>
     <t>RO.FOU</t>
-  </si>
-  <si>
-    <t>RO.FOU.001.MAJ</t>
-  </si>
-  <si>
-    <t>RO.FOU.001.LEC</t>
   </si>
 </sst>
 </file>
@@ -458,7 +452,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -481,37 +475,42 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>19</v>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
